--- a/excfile.xlsx
+++ b/excfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\文件备份Orange\10.1调题\Orange Game Syetem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1851AFF7-0BA7-488B-AFB1-C1FA6ECEB1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7104D396-9F94-4337-9502-46C160DC95EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="1425" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>October,10,2022</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,13 @@
   <si>
     <t>And no more!=)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好奇心害死猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curiosity kills cats</t>
   </si>
 </sst>
 </file>
@@ -116,10 +123,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -405,180 +412,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M700"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -587,226 +594,226 @@
       <c r="B12" s="4">
         <v>0.3125</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
@@ -988,86 +995,21 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>9</v>
+      </c>
+      <c r="C700" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="C12:M25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A1:M11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B12:B13"/>
@@ -1078,12 +1020,85 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A1:M11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C12:M25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
